--- a/biology/Botanique/Séneçon/Séneçon.xlsx
+++ b/biology/Botanique/Séneçon/Séneçon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle en français « séneçon » (\sɛnsɔ̃\) diverses plantes généralement herbacées de la famille des Asteraceae.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom « Séneçon » dérive du latin « Senex, senecio » qui signifie « vieillard ».
 Cela évoque les aigrettes blanches, souvent duveteuses, surmontant les akènes que produisent certains séneçons. Ces inflorescences surmontées de ces aigrettes évoquent de petites têtes de vieillards.
 Le genre des séneçons « véritables » est le genre Senecio parmi lequel on retrouve le séneçon commun qui produit ces typiques aigrettes (pappus). Ajoutons à cela plusieurs genres voisins comme Jacobaea.
-Ce sont des plantes toxiques car elles contiennent des alcaloïdes pyrrolizidiniques (sénécionine, sénéciphylline…) rassemblés sous l'appellation de « nécines » et dont l'activité toxique se manifeste principalement au niveau du foie où ils provoquent de la cirrhose[1].
+Ce sont des plantes toxiques car elles contiennent des alcaloïdes pyrrolizidiniques (sénécionine, sénéciphylline…) rassemblés sous l'appellation de « nécines » et dont l'activité toxique se manifeste principalement au niveau du foie où ils provoquent de la cirrhose.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Senecio</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Parmi ce genre, citons :
 Le séneçon anguleux - Senecio angulatus L.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,7 +599,9 @@
           <t>Jacobaea</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le séneçon de Jacob - Jacobaea vulgaris Gaertn.
 Le séneçon aquatique - Jacobaea aquatica (Hill) G.Gaertn. &amp; al.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Dendrosenecio</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le séneçon géant du Kilimandjaro  - Dendrosenecio kilimanjari (Milbr.) E.B.Knox</t>
         </is>
@@ -628,7 +648,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -646,7 +666,9 @@
           <t>Parmi les Tephroseris</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le séneçon des marais - Tephroseris palustris (L.) Fourr.
 Le séneçon à feuilles spatulées - Tephroseris helenitis (L.) B.Nord.</t>
@@ -659,7 +681,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -677,7 +699,9 @@
           <t>Parmi les Baccharis</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Le séneçon en arbre - Baccharis halimifolia L. qui n'est pas une plante herbacée mais un arbrisseau.</t>
         </is>
@@ -689,7 +713,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>S%C3%A9ne%C3%A7on</t>
+          <t>Séneçon</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -707,7 +731,9 @@
           <t>Parmi les Ligularia</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Le séneçon de Sibérie ou ligulaire de Sibérie - Ligularia sibirica (L.) Cass.</t>
         </is>
